--- a/周计划.xlsx
+++ b/周计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="105">
   <si>
     <t>9.19-9.24</t>
   </si>
@@ -171,9 +171,6 @@
     <t>Credit scoring models for the microfinance industry using neural networks Evidence from Peru</t>
   </si>
   <si>
-    <t xml:space="preserve">Credit Scoring with an Improved Fuzzy__Support Vector Machine Based on Grey__Incidence Analysis </t>
-  </si>
-  <si>
     <t>Music Similarity Concepts Cognition and Computation</t>
   </si>
   <si>
@@ -199,6 +196,144 @@
   </si>
   <si>
     <t>第二周</t>
+  </si>
+  <si>
+    <t>Functional Scaffolding for Composing Additional Music Voices</t>
+  </si>
+  <si>
+    <t>第三周</t>
+  </si>
+  <si>
+    <t>10.2-10.08</t>
+  </si>
+  <si>
+    <t>A practical Bayesin framework for backpropagation networks</t>
+  </si>
+  <si>
+    <t>MacKay &amp; DJC</t>
+  </si>
+  <si>
+    <t>自动确定神经网络正则化参数</t>
+  </si>
+  <si>
+    <t>Evolving artificial neural networks</t>
+  </si>
+  <si>
+    <t>Yao &amp; X</t>
+  </si>
+  <si>
+    <t>遗传算法生成神经网络</t>
+  </si>
+  <si>
+    <t>Pegasos: Primal estimated sub-gradient solver for SVM</t>
+  </si>
+  <si>
+    <t>Shalev-Shwartz, S, Y.Singer</t>
+  </si>
+  <si>
+    <t>随机梯度下降的SVM</t>
+  </si>
+  <si>
+    <t>On discriminative vs generative classifiers: A comparison of logistic regression and naïve Bayes</t>
+  </si>
+  <si>
+    <t>Ng A &amp; M.I.Jordan</t>
+  </si>
+  <si>
+    <t>朴素贝叶斯</t>
+  </si>
+  <si>
+    <t>Two-dimensional PCA: A new approach to appearance-based face representation and recognition</t>
+  </si>
+  <si>
+    <t>Yang J &amp; D.Zhang</t>
+  </si>
+  <si>
+    <t>矩阵降维</t>
+  </si>
+  <si>
+    <t>DDL:10.8</t>
+  </si>
+  <si>
+    <t>Credit scoring using the clustered support vector machine</t>
+  </si>
+  <si>
+    <t>Decision tree-based technology credit scoring for start-up firms Korean case</t>
+  </si>
+  <si>
+    <t>Does segmentation always improve model performance in credit scoring_</t>
+  </si>
+  <si>
+    <t>Enhanced algorithm for high-dimensional data classification</t>
+  </si>
+  <si>
+    <t>Enhancing accuracy and interpretability of ensemble strategies in credit risk assessment. A correlated-adjusted decision forest proposal</t>
+  </si>
+  <si>
+    <t>Ensemble classification based on supervised clustering for credit scoring</t>
+  </si>
+  <si>
+    <t>Exploring the behaviour of base classifiers in credit scoring ensembles</t>
+  </si>
+  <si>
+    <t>Genetic algorithms for credit scoring Alternative fitness function performance comparison</t>
+  </si>
+  <si>
+    <t>Hybrid system with genetic algorithm and artificial neural networks and its application to retail credit risk assessment</t>
+  </si>
+  <si>
+    <t>Improving experimental studies about ensembles of classifiers for bankruptcy prediction and credit scoring</t>
+  </si>
+  <si>
+    <t>Improving the management of microfinance institutions by using credit scoring models based on Statistical Learning techniques</t>
+  </si>
+  <si>
+    <t>Investigation and improvement of multi-layer perceptron neural networks for credit scoring</t>
+  </si>
+  <si>
+    <t>On the impact of disproportional samples in credit scoring models An application to a Brazilian bank data</t>
+  </si>
+  <si>
+    <t>Quantitative credit risk assessment using support vector machines Broad versus Narrow default definitions</t>
+  </si>
+  <si>
+    <t>Rough set andscatter search metaheuristic based feature selection for credit scoring</t>
+  </si>
+  <si>
+    <t>The application of brute force logistic regression to corporate credit scoring models Evidence from Serbian financial statements</t>
+  </si>
+  <si>
+    <t>附加</t>
+  </si>
+  <si>
+    <t>Triple Generative Adversarial Nets</t>
+  </si>
+  <si>
+    <t>GAN</t>
+  </si>
+  <si>
+    <t>Learning to Ask: Neural Question Generation for Reading Comprehension</t>
+  </si>
+  <si>
+    <t>问题生成</t>
+  </si>
+  <si>
+    <t>Toward Controlled Generation of Text</t>
+  </si>
+  <si>
+    <t>文本生成</t>
+  </si>
+  <si>
+    <t>Learned in Translation: Contextualized Word Vectors</t>
+  </si>
+  <si>
+    <t>词向量</t>
+  </si>
+  <si>
+    <t>A Simple But Tough To Beat Baseline For Sentence Embeddings</t>
+  </si>
+  <si>
+    <t>句向量</t>
   </si>
 </sst>
 </file>
@@ -241,17 +376,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -302,16 +443,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>128586</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1238249</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -326,7 +467,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419099" y="3567111"/>
+          <a:off x="13096875" y="319086"/>
           <a:ext cx="4514850" cy="3552826"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -858,438 +999,675 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="9.06640625" style="2"/>
-    <col min="3" max="3" width="9.06640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.53125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.796875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.3984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.3984375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.3984375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.06640625" style="2"/>
+    <col min="1" max="2" width="9.06640625" style="3"/>
+    <col min="3" max="3" width="9.06640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.53125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.796875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22.3984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.3984375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.3984375" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.06640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2010</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2006</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2006</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2006</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="3"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="H11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="F12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="3"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="H12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E13" s="2">
         <v>2010</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F13" s="2">
+        <v>1996</v>
+      </c>
+      <c r="G13" s="2">
         <v>2006</v>
       </c>
-      <c r="G4" s="1">
-        <v>2006</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2006</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
+      <c r="H13" s="2">
+        <v>2014</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="4"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
+      <c r="H14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="4"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="3"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
+      <c r="H16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="4"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="4"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="E17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="4"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="4"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
+      <c r="E21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" s="4"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="1">
-        <v>2010</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1996</v>
-      </c>
-      <c r="G13" s="1">
-        <v>2006</v>
-      </c>
-      <c r="H13" s="1">
-        <v>2014</v>
-      </c>
-      <c r="I13" s="1">
+      <c r="E22" s="2">
         <v>1992</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="3"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
+      <c r="F22" s="2">
+        <v>1999</v>
+      </c>
+      <c r="G22" s="2">
+        <v>2011</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2002</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" s="4"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="3"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
+      <c r="E23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="4"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="3"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="E24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A25" s="4"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A26" s="4"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="4"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="3"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="3"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="E29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A11:A18"/>
+    <mergeCell ref="A20:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/周计划.xlsx
+++ b/周计划.xlsx
@@ -1001,7 +1001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>

--- a/周计划.xlsx
+++ b/周计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="130">
   <si>
     <t>9.19-9.24</t>
   </si>
@@ -334,6 +334,81 @@
   </si>
   <si>
     <t>句向量</t>
+  </si>
+  <si>
+    <t>第五周</t>
+  </si>
+  <si>
+    <t>10.16-10.22</t>
+  </si>
+  <si>
+    <t>DDL:10.20</t>
+  </si>
+  <si>
+    <t>Information-theoretic metric learning</t>
+  </si>
+  <si>
+    <t>Davis, J.V</t>
+  </si>
+  <si>
+    <t>Distance metric learning, with application to clustering with side-information</t>
+  </si>
+  <si>
+    <t>Xing, E.P</t>
+  </si>
+  <si>
+    <t>An efficient algorithm for local distance metric learning</t>
+  </si>
+  <si>
+    <t>Yang, L.</t>
+  </si>
+  <si>
+    <t>Learning instance specific distances using metric propagation</t>
+  </si>
+  <si>
+    <t>Zhan</t>
+  </si>
+  <si>
+    <t>度量学习</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature selection: An ever evolving frontier in data mining </t>
+  </si>
+  <si>
+    <t>Liu, H.</t>
+  </si>
+  <si>
+    <t>特征选择</t>
+  </si>
+  <si>
+    <t>A case-based reasoning model that uses preference theory functions for credit scoring</t>
+  </si>
+  <si>
+    <t>A comparative study of classifier ensembles for bankruptcy prediction</t>
+  </si>
+  <si>
+    <t>A guided data projection technique for classification of sovereign ratings The case of European Union 27</t>
+  </si>
+  <si>
+    <t>A multi-objective genetic optimization for fast, fuzzy rule-based</t>
+  </si>
+  <si>
+    <t>A novel risk attitudinal ranking method for intuitionistic fuzzy values</t>
+  </si>
+  <si>
+    <t>Consumer credit scoring models with limited data-how to use transaction data+feature selection+create Y</t>
+  </si>
+  <si>
+    <t>Financial Risk Modelling in Vehicle Credit Portfolio</t>
+  </si>
+  <si>
+    <t>Two-level classifier ensembles for credit risk assessment</t>
+  </si>
+  <si>
+    <t>Network Dynamics How Can We Find Patients Like Us</t>
+  </si>
+  <si>
+    <t>Predicting and Deterring Default with Social Media Information in P2P Lending</t>
   </si>
 </sst>
 </file>
@@ -999,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1660,11 +1735,191 @@
         <v>104</v>
       </c>
     </row>
+    <row r="31" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+      <c r="A31" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" s="4"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33" s="4"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="6">
+        <v>2010</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2003</v>
+      </c>
+      <c r="G33" s="2">
+        <v>2006</v>
+      </c>
+      <c r="H33" s="2">
+        <v>2007</v>
+      </c>
+      <c r="I33" s="2">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" s="4"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="4"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A36" s="4"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="4"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" s="4"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A11:A18"/>
     <mergeCell ref="A20:A27"/>
+    <mergeCell ref="A31:A38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
